--- a/medicine/Pharmacie/Agastache_foeniculum/Agastache_foeniculum.xlsx
+++ b/medicine/Pharmacie/Agastache_foeniculum/Agastache_foeniculum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Agastache foeniculum, communément appelée agastache fenouil, anis hysope, hysope anisée ou grande hysope, est une plante herbacée, vivace, de la famille des Lamiacées (Labiées), tribu des mentheae, genre agastache, cultivée comme plante ornementale, aromatique et condimentaire.
 Elle est également utilisée comme plante mellifère (goût d'anis).
@@ -515,7 +527,9 @@
           <t>Caractéristiques botaniques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>plante vivace (durée de vie de quelques années) ;
 tige : de 50 cm à 1,2 m ;
@@ -550,7 +564,9 @@
           <t>Principaux cultivars</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Agastache foeniculum s'hybride très facilement avec les autres espèces d'agastache. Il est donc prudent de ne pas mélanger les espèces dans le même jardin si l'on veut conserver une souche pure.
 </t>
@@ -581,7 +597,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'agastache est une plante vivace très rustique et peu exigeante.
 Elle sait s'adapter à la plupart des types de sols (y compris calcaires ou argileux) à condition qu'ils soient correctement drainés. Elle préfère une exposition ensoleillée ou semi-ombrée.
@@ -616,7 +634,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'anis hysope Agastache foeniculum est d'origine nord-américaine (Alberta). Elle a par la suite été introduite en Europe, en tant que plante mellifère.
 </t>
@@ -647,9 +667,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'agastache est utilisée en infusion dans la pharmacopée des indiens d'Amérique pour combattre la fièvre[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'agastache est utilisée en infusion dans la pharmacopée des indiens d'Amérique pour combattre la fièvre.
 En Europe, elle est d'abord plantée à titre décoratif dans les jardins floraux, puis l'on s'intéresse à son parfum et à son arôme marqué qui donne au miel un goût anisé.
 Elle est d'abord consommée en infusion ou en thé et devient par la suite une plante aromatique et condimentaire qui parfume crudités, salades, boissons, gâteaux.
 Les feuilles s'utilisent en infusion ou dans la cuisine, en remplacement de l'anis.
